--- a/信用卡片回饋特色/富邦卡片回饋特色.xlsx
+++ b/信用卡片回饋特色/富邦卡片回饋特色.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a8b62ba60823c0ee/桌面/信用卡片回饋特色/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YiChing\Desktop\project\信用卡片回饋特色\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="152" documentId="8_{13F5CB86-3580-4E02-A17F-BB18908A1365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF91BF17-513C-4BEA-AC7F-D28B43599EAF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9343FC7-BC5A-46A6-B5AB-DDE11D400A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5F576437-2CA1-46DF-AC0B-4AFFCD457E68}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5F576437-2CA1-46DF-AC0B-4AFFCD457E68}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
   <si>
     <t>卡片名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -430,6 +430,10 @@
   </si>
   <si>
     <t>･ 每刷卡20元回饋紅利1點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 當期帳當有數位通路消費：一般消費 0.7％現金回饋（如當期帳單無任一筆數位通路消費，每筆新增一般消費享0.3％現金回饋）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -827,16 +831,16 @@
   <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60:B63"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7265625" customWidth="1"/>
-    <col min="2" max="2" width="90.81640625" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" customWidth="1"/>
+    <col min="2" max="2" width="138" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -844,7 +848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -852,22 +856,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -875,30 +879,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -906,7 +910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -914,7 +918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -922,32 +926,32 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -955,7 +959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -963,7 +967,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -971,7 +975,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -979,7 +983,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -987,7 +991,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -995,12 +999,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -1008,22 +1012,22 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -1031,17 +1035,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -1049,12 +1053,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -1062,12 +1066,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -1075,7 +1079,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -1083,17 +1087,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>58</v>
       </c>
@@ -1101,17 +1105,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>62</v>
       </c>
@@ -1119,12 +1123,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -1132,22 +1136,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>70</v>
       </c>
@@ -1155,7 +1159,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>71</v>
       </c>
@@ -1163,12 +1167,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>75</v>
       </c>
@@ -1176,7 +1180,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>77</v>
       </c>
@@ -1184,12 +1188,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>78</v>
       </c>
@@ -1197,7 +1201,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>79</v>
       </c>
@@ -1205,7 +1209,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>81</v>
       </c>
@@ -1213,7 +1217,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>82</v>
       </c>
